--- a/TradeSpot/Tools/backend.xlsx
+++ b/TradeSpot/Tools/backend.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\larsc\Documents\_Code\SourBison\TradeSpot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\larsc\Documents\_Code\SourBison\TradeSpot\Tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{195422D4-1D9C-4993-9867-D9E54B635BBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5AE2C77-61CD-440D-9856-CE6DB2B99D6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5505" yWindow="4125" windowWidth="28800" windowHeight="15435" xr2:uid="{45123FA4-84F6-4A1C-B7A6-E8AC72F92F6F}"/>
+    <workbookView xWindow="3450" yWindow="4890" windowWidth="21615" windowHeight="15435" xr2:uid="{45123FA4-84F6-4A1C-B7A6-E8AC72F92F6F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,17 +36,80 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={39FFA42B-543C-4C96-A798-3EDE47327BF4}</author>
+    <author>tc={8B68E613-CFD2-44F6-ABF3-E95FECE871D1}</author>
+    <author>tc={06228BB8-608A-4ABB-A93E-5C6E271D9C57}</author>
+    <author>tc={FECD2BB8-BA54-4088-A568-E5AF512A7407}</author>
+    <author>tc={E8D7C68D-BDA0-4642-A7B2-FFD982C48986}</author>
+    <author>tc={4062C69D-86BB-4293-94D2-D47331E03818}</author>
+    <author>tc={607C2D7B-37BA-410C-8035-D168D9B5B50A}</author>
+  </authors>
+  <commentList>
+    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{39FFA42B-543C-4C96-A798-3EDE47327BF4}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    card.name</t>
+      </text>
+    </comment>
+    <comment ref="C6" authorId="1" shapeId="0" xr:uid="{8B68E613-CFD2-44F6-ABF3-E95FECE871D1}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    card.rarity</t>
+      </text>
+    </comment>
+    <comment ref="E6" authorId="2" shapeId="0" xr:uid="{06228BB8-608A-4ABB-A93E-5C6E271D9C57}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    card.setCode</t>
+      </text>
+    </comment>
+    <comment ref="F6" authorId="3" shapeId="0" xr:uid="{FECD2BB8-BA54-4088-A568-E5AF512A7407}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    card.Identity</t>
+      </text>
+    </comment>
+    <comment ref="G6" authorId="4" shapeId="0" xr:uid="{E8D7C68D-BDA0-4642-A7B2-FFD982C48986}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    card.finishes</t>
+      </text>
+    </comment>
+    <comment ref="C15" authorId="5" shapeId="0" xr:uid="{4062C69D-86BB-4293-94D2-D47331E03818}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    1-5</t>
+      </text>
+    </comment>
+    <comment ref="D21" authorId="6" shapeId="0" xr:uid="{607C2D7B-37BA-410C-8035-D168D9B5B50A}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    outgoing, incoming, processing, completed</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="36">
   <si>
     <t>Have</t>
   </si>
@@ -59,12 +123,6 @@
     <t>Trades</t>
   </si>
   <si>
-    <t>Balance</t>
-  </si>
-  <si>
-    <t>Level</t>
-  </si>
-  <si>
     <t>Inventory</t>
   </si>
   <si>
@@ -81,6 +139,84 @@
   </si>
   <si>
     <t>User</t>
+  </si>
+  <si>
+    <t>user_ID</t>
+  </si>
+  <si>
+    <t>card_ID</t>
+  </si>
+  <si>
+    <t>addedAt</t>
+  </si>
+  <si>
+    <t>other_user_ID</t>
+  </si>
+  <si>
+    <t>TradeItems</t>
+  </si>
+  <si>
+    <t>trade_ID</t>
+  </si>
+  <si>
+    <t>owner_ID</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>Cards</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>rarity</t>
+  </si>
+  <si>
+    <t>identifiers(srcyfallID)</t>
+  </si>
+  <si>
+    <t>finishes</t>
+  </si>
+  <si>
+    <t>set_code</t>
+  </si>
+  <si>
+    <t>color_identity</t>
+  </si>
+  <si>
+    <t>quanity</t>
+  </si>
+  <si>
+    <t>finish</t>
+  </si>
+  <si>
+    <t>rating</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>borders</t>
+  </si>
+  <si>
+    <t>balance</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>Image</t>
+  </si>
+  <si>
+    <t>Date/Time</t>
+  </si>
+  <si>
+    <t>price</t>
   </si>
 </sst>
 </file>
@@ -120,15 +256,39 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -145,11 +305,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -158,6 +327,25 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -175,6 +363,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Conard, Lars Victor" id="{FCDE930E-55F1-47F9-871B-6958062835AC}" userId="S::lvconard@iu.edu::8e6bf535-be5a-4c47-91aa-a3fdbf8ff901" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -492,99 +686,463 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B6" dT="2025-02-01T05:15:26.89" personId="{FCDE930E-55F1-47F9-871B-6958062835AC}" id="{39FFA42B-543C-4C96-A798-3EDE47327BF4}">
+    <text>card.name</text>
+  </threadedComment>
+  <threadedComment ref="C6" dT="2025-02-01T05:15:44.53" personId="{FCDE930E-55F1-47F9-871B-6958062835AC}" id="{8B68E613-CFD2-44F6-ABF3-E95FECE871D1}">
+    <text>card.rarity</text>
+  </threadedComment>
+  <threadedComment ref="E6" dT="2025-02-01T05:16:06.51" personId="{FCDE930E-55F1-47F9-871B-6958062835AC}" id="{06228BB8-608A-4ABB-A93E-5C6E271D9C57}">
+    <text>card.setCode</text>
+  </threadedComment>
+  <threadedComment ref="F6" dT="2025-02-01T05:16:31.27" personId="{FCDE930E-55F1-47F9-871B-6958062835AC}" id="{FECD2BB8-BA54-4088-A568-E5AF512A7407}">
+    <text>card.Identity</text>
+  </threadedComment>
+  <threadedComment ref="G6" dT="2025-02-01T05:16:51.39" personId="{FCDE930E-55F1-47F9-871B-6958062835AC}" id="{E8D7C68D-BDA0-4642-A7B2-FFD982C48986}">
+    <text>card.finishes</text>
+  </threadedComment>
+  <threadedComment ref="C15" dT="2025-02-01T05:11:46.80" personId="{FCDE930E-55F1-47F9-871B-6958062835AC}" id="{4062C69D-86BB-4293-94D2-D47331E03818}">
+    <text>1-5</text>
+  </threadedComment>
+  <threadedComment ref="D21" dT="2025-02-01T05:22:08.91" personId="{FCDE930E-55F1-47F9-871B-6958062835AC}" id="{607C2D7B-37BA-410C-8035-D168D9B5B50A}">
+    <text>outgoing, incoming, processing, completed</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87768966-197D-4002-9C8D-96184169D7F2}">
-  <dimension ref="A1:J3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87768966-197D-4002-9C8D-96184169D7F2}">
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="2" t="s">
+    <row r="1" spans="1:10" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="14" t="s">
         <v>9</v>
       </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C8" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="D20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:10" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="J24" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="7">
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A16:J16"/>
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="A22:J22"/>
     <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A7:J7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>